--- a/Data/RawData/YPE_Data/YPE_6/DigitalData_YPE6/YPE_PILAdata_Plot_6.xlsx
+++ b/Data/RawData/YPE_Data/YPE_6/DigitalData_YPE6/YPE_PILAdata_Plot_6.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="B3xJUsftYzEPB/JP2iDAfLNqbwHoD2XlBPtOnWo4d/4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="RswKqYS0/2YuBhtWH3ULTZrLtD4R3loAkSZ92p0SAfY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="153">
   <si>
     <t>plotID</t>
   </si>
@@ -6000,8 +6000,8 @@
       <c r="AO28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AP28" s="4" t="s">
-        <v>62</v>
+      <c r="AP28" s="4">
+        <v>319.0</v>
       </c>
       <c r="AQ28" s="4" t="s">
         <v>62</v>
@@ -6188,8 +6188,8 @@
       <c r="AO29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AP29" s="4" t="s">
-        <v>62</v>
+      <c r="AP29" s="4">
+        <v>320.0</v>
       </c>
       <c r="AQ29" s="4" t="s">
         <v>62</v>
@@ -6376,8 +6376,8 @@
       <c r="AO30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AP30" s="4" t="s">
-        <v>62</v>
+      <c r="AP30" s="4">
+        <v>322.0</v>
       </c>
       <c r="AQ30" s="4" t="s">
         <v>62</v>
@@ -6564,8 +6564,8 @@
       <c r="AO31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AP31" s="4" t="s">
-        <v>62</v>
+      <c r="AP31" s="4">
+        <v>323.0</v>
       </c>
       <c r="AQ31" s="4" t="s">
         <v>62</v>
@@ -6752,8 +6752,8 @@
       <c r="AO32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AP32" s="4" t="s">
-        <v>62</v>
+      <c r="AP32" s="4">
+        <v>326.0</v>
       </c>
       <c r="AQ32" s="4" t="s">
         <v>62</v>
@@ -6940,8 +6940,8 @@
       <c r="AO33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AP33" s="4" t="s">
-        <v>62</v>
+      <c r="AP33" s="4">
+        <v>327.0</v>
       </c>
       <c r="AQ33" s="4" t="s">
         <v>62</v>
@@ -7128,8 +7128,8 @@
       <c r="AO34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AP34" s="4" t="s">
-        <v>62</v>
+      <c r="AP34" s="4">
+        <v>324.0</v>
       </c>
       <c r="AQ34" s="4" t="s">
         <v>62</v>
